--- a/Datos/Decks_Players.xlsx
+++ b/Datos/Decks_Players.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20369"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59CC4A6B-A8D2-4DCA-AB80-6C0EEF3A3177}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58D84B5C-9CB5-4BC1-ABA2-3CECFE64A197}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9525" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="65">
   <si>
     <t>Gaddok Tegg</t>
   </si>
@@ -194,6 +194,30 @@
   </si>
   <si>
     <t>Torneos_Ganados</t>
+  </si>
+  <si>
+    <t>Winota</t>
+  </si>
+  <si>
+    <t>Enrique</t>
+  </si>
+  <si>
+    <t>Jaime</t>
+  </si>
+  <si>
+    <t>Alvaro</t>
+  </si>
+  <si>
+    <t>Thassa</t>
+  </si>
+  <si>
+    <t>Kalimax</t>
+  </si>
+  <si>
+    <t>ID0017</t>
+  </si>
+  <si>
+    <t>ID0018</t>
   </si>
 </sst>
 </file>
@@ -530,10 +554,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Y17"/>
+  <dimension ref="A1:AB20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -565,7 +589,7 @@
     <col min="26" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:28" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>31</v>
       </c>
@@ -641,8 +665,17 @@
       <c r="Y1" s="2" t="s">
         <v>54</v>
       </c>
+      <c r="Z1" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="AA1" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="AB1" s="2" t="s">
+        <v>60</v>
+      </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>32</v>
       </c>
@@ -718,8 +751,17 @@
       <c r="Y2" s="1">
         <v>0</v>
       </c>
+      <c r="Z2" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA2" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB2" s="1">
+        <v>0</v>
+      </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>33</v>
       </c>
@@ -795,8 +837,17 @@
       <c r="Y3" s="1">
         <v>0</v>
       </c>
+      <c r="Z3" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA3" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB3" s="1">
+        <v>0</v>
+      </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>34</v>
       </c>
@@ -872,8 +923,17 @@
       <c r="Y4" s="1">
         <v>0</v>
       </c>
+      <c r="Z4" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA4" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB4" s="1">
+        <v>0</v>
+      </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>35</v>
       </c>
@@ -949,8 +1009,17 @@
       <c r="Y5" s="1">
         <v>0</v>
       </c>
+      <c r="Z5" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA5" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB5" s="1">
+        <v>0</v>
+      </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>36</v>
       </c>
@@ -1026,8 +1095,17 @@
       <c r="Y6" s="1">
         <v>0</v>
       </c>
+      <c r="Z6" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA6" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB6" s="1">
+        <v>0</v>
+      </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>37</v>
       </c>
@@ -1103,8 +1181,17 @@
       <c r="Y7" s="1">
         <v>0</v>
       </c>
+      <c r="Z7" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA7" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB7" s="1">
+        <v>0</v>
+      </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>38</v>
       </c>
@@ -1180,8 +1267,17 @@
       <c r="Y8" s="1">
         <v>0</v>
       </c>
+      <c r="Z8" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA8" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB8" s="1">
+        <v>0</v>
+      </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>39</v>
       </c>
@@ -1257,8 +1353,17 @@
       <c r="Y9" s="1">
         <v>0</v>
       </c>
+      <c r="Z9" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA9" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB9" s="1">
+        <v>0</v>
+      </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>40</v>
       </c>
@@ -1334,8 +1439,17 @@
       <c r="Y10" s="1">
         <v>0</v>
       </c>
+      <c r="Z10" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA10" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB10" s="1">
+        <v>0</v>
+      </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>41</v>
       </c>
@@ -1411,8 +1525,17 @@
       <c r="Y11" s="1">
         <v>0</v>
       </c>
+      <c r="Z11" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA11" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB11" s="1">
+        <v>0</v>
+      </c>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>42</v>
       </c>
@@ -1488,8 +1611,17 @@
       <c r="Y12" s="1">
         <v>0</v>
       </c>
+      <c r="Z12" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA12" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB12" s="1">
+        <v>0</v>
+      </c>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>43</v>
       </c>
@@ -1565,8 +1697,17 @@
       <c r="Y13" s="1">
         <v>0</v>
       </c>
+      <c r="Z13" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA13" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB13" s="1">
+        <v>0</v>
+      </c>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>44</v>
       </c>
@@ -1642,8 +1783,17 @@
       <c r="Y14" s="1">
         <v>0</v>
       </c>
+      <c r="Z14" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA14" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB14" s="1">
+        <v>0</v>
+      </c>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>47</v>
       </c>
@@ -1719,164 +1869,449 @@
       <c r="Y15" s="1">
         <v>0</v>
       </c>
+      <c r="Z15" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA15" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB15" s="1">
+        <v>0</v>
+      </c>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>50</v>
       </c>
       <c r="B16" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C16" s="1">
+        <v>2</v>
+      </c>
+      <c r="D16" s="1">
+        <v>1</v>
+      </c>
+      <c r="E16" s="1">
+        <v>0</v>
+      </c>
+      <c r="F16" s="1">
+        <v>0</v>
+      </c>
+      <c r="G16" s="1">
+        <v>0</v>
+      </c>
+      <c r="H16" s="1">
+        <v>1</v>
+      </c>
+      <c r="I16" s="1">
+        <v>1</v>
+      </c>
+      <c r="J16" s="1">
+        <v>1</v>
+      </c>
+      <c r="K16" s="1">
+        <v>0</v>
+      </c>
+      <c r="L16" s="1">
+        <v>0</v>
+      </c>
+      <c r="M16" s="1">
+        <v>0</v>
+      </c>
+      <c r="N16" s="1">
+        <v>0</v>
+      </c>
+      <c r="O16" s="1">
+        <v>0</v>
+      </c>
+      <c r="P16" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q16" s="1">
+        <v>0</v>
+      </c>
+      <c r="R16" s="1">
+        <v>0</v>
+      </c>
+      <c r="S16" s="1">
+        <v>0</v>
+      </c>
+      <c r="T16" s="1">
+        <v>0</v>
+      </c>
+      <c r="U16" s="1">
+        <v>0</v>
+      </c>
+      <c r="V16" s="1">
+        <v>0</v>
+      </c>
+      <c r="W16" s="1">
+        <v>0</v>
+      </c>
+      <c r="X16" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y16" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z16" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA16" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB16" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C17" s="1">
+        <v>2</v>
+      </c>
+      <c r="D17" s="1">
+        <v>0</v>
+      </c>
+      <c r="E17" s="1">
+        <v>0</v>
+      </c>
+      <c r="F17" s="1">
+        <v>1</v>
+      </c>
+      <c r="G17" s="1">
+        <v>0</v>
+      </c>
+      <c r="H17" s="1">
+        <v>0</v>
+      </c>
+      <c r="I17" s="1">
+        <v>0</v>
+      </c>
+      <c r="J17" s="1">
+        <v>0</v>
+      </c>
+      <c r="K17" s="1">
+        <v>0</v>
+      </c>
+      <c r="L17" s="1">
+        <v>0</v>
+      </c>
+      <c r="M17" s="1">
+        <v>0</v>
+      </c>
+      <c r="N17" s="1">
+        <v>0</v>
+      </c>
+      <c r="O17" s="1">
+        <v>0</v>
+      </c>
+      <c r="P17" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q17" s="1">
+        <v>0</v>
+      </c>
+      <c r="R17" s="1">
+        <v>0</v>
+      </c>
+      <c r="S17" s="1">
+        <v>0</v>
+      </c>
+      <c r="T17" s="1">
+        <v>0</v>
+      </c>
+      <c r="U17" s="1">
+        <v>0</v>
+      </c>
+      <c r="V17" s="1">
+        <v>0</v>
+      </c>
+      <c r="W17" s="1">
+        <v>0</v>
+      </c>
+      <c r="X17" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y17" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z17" s="1">
+        <v>1</v>
+      </c>
+      <c r="AA17" s="1">
+        <v>1</v>
+      </c>
+      <c r="AB17" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B18" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="C16" s="1">
+      <c r="C18" s="1">
         <v>2.5</v>
       </c>
-      <c r="D16" s="1">
-        <v>0</v>
-      </c>
-      <c r="E16" s="1">
-        <v>0</v>
-      </c>
-      <c r="F16" s="1">
-        <v>0</v>
-      </c>
-      <c r="G16" s="1">
-        <v>0</v>
-      </c>
-      <c r="H16" s="1">
-        <v>1</v>
-      </c>
-      <c r="I16" s="1">
-        <v>0</v>
-      </c>
-      <c r="J16" s="1">
-        <v>1</v>
-      </c>
-      <c r="K16" s="1">
-        <v>0</v>
-      </c>
-      <c r="L16" s="1">
-        <v>0</v>
-      </c>
-      <c r="M16" s="1">
-        <v>0</v>
-      </c>
-      <c r="N16" s="1">
-        <v>0</v>
-      </c>
-      <c r="O16" s="1">
-        <v>0</v>
-      </c>
-      <c r="P16" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q16" s="1">
-        <v>0</v>
-      </c>
-      <c r="R16" s="1">
-        <v>0</v>
-      </c>
-      <c r="S16" s="1">
-        <v>0</v>
-      </c>
-      <c r="T16" s="1">
-        <v>0</v>
-      </c>
-      <c r="U16" s="1">
-        <v>0</v>
-      </c>
-      <c r="V16" s="1">
-        <v>0</v>
-      </c>
-      <c r="W16" s="1">
-        <v>0</v>
-      </c>
-      <c r="X16" s="1">
-        <v>0</v>
-      </c>
-      <c r="Y16" s="1">
+      <c r="D18" s="1">
+        <v>0</v>
+      </c>
+      <c r="E18" s="1">
+        <v>0</v>
+      </c>
+      <c r="F18" s="1">
+        <v>0</v>
+      </c>
+      <c r="G18" s="1">
+        <v>0</v>
+      </c>
+      <c r="H18" s="1">
+        <v>1</v>
+      </c>
+      <c r="I18" s="1">
+        <v>0</v>
+      </c>
+      <c r="J18" s="1">
+        <v>1</v>
+      </c>
+      <c r="K18" s="1">
+        <v>0</v>
+      </c>
+      <c r="L18" s="1">
+        <v>0</v>
+      </c>
+      <c r="M18" s="1">
+        <v>0</v>
+      </c>
+      <c r="N18" s="1">
+        <v>0</v>
+      </c>
+      <c r="O18" s="1">
+        <v>0</v>
+      </c>
+      <c r="P18" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q18" s="1">
+        <v>0</v>
+      </c>
+      <c r="R18" s="1">
+        <v>0</v>
+      </c>
+      <c r="S18" s="1">
+        <v>0</v>
+      </c>
+      <c r="T18" s="1">
+        <v>0</v>
+      </c>
+      <c r="U18" s="1">
+        <v>0</v>
+      </c>
+      <c r="V18" s="1">
+        <v>0</v>
+      </c>
+      <c r="W18" s="1">
+        <v>0</v>
+      </c>
+      <c r="X18" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y18" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z18" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA18" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB18" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
+    <row r="19" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C19" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="D19" s="1">
+        <v>0</v>
+      </c>
+      <c r="E19" s="1">
+        <v>0</v>
+      </c>
+      <c r="F19" s="1">
+        <v>1</v>
+      </c>
+      <c r="G19" s="1">
+        <v>1</v>
+      </c>
+      <c r="H19" s="1">
+        <v>1</v>
+      </c>
+      <c r="I19" s="1">
+        <v>0</v>
+      </c>
+      <c r="J19" s="1">
+        <v>0</v>
+      </c>
+      <c r="K19" s="1">
+        <v>0</v>
+      </c>
+      <c r="L19" s="1">
+        <v>0</v>
+      </c>
+      <c r="M19" s="1">
+        <v>0</v>
+      </c>
+      <c r="N19" s="1">
+        <v>0</v>
+      </c>
+      <c r="O19" s="1">
+        <v>0</v>
+      </c>
+      <c r="P19" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q19" s="1">
+        <v>0</v>
+      </c>
+      <c r="R19" s="1">
+        <v>0</v>
+      </c>
+      <c r="S19" s="1">
+        <v>0</v>
+      </c>
+      <c r="T19" s="1">
+        <v>0</v>
+      </c>
+      <c r="U19" s="1">
+        <v>0</v>
+      </c>
+      <c r="V19" s="1">
+        <v>0</v>
+      </c>
+      <c r="W19" s="1">
+        <v>0</v>
+      </c>
+      <c r="X19" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y19" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z19" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA19" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB19" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="B20" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C17" s="1">
+      <c r="C20" s="1">
         <v>3</v>
       </c>
-      <c r="D17" s="1">
-        <v>0</v>
-      </c>
-      <c r="E17" s="1">
-        <v>1</v>
-      </c>
-      <c r="F17" s="1">
-        <v>1</v>
-      </c>
-      <c r="G17" s="1">
-        <v>0</v>
-      </c>
-      <c r="H17" s="1">
-        <v>0</v>
-      </c>
-      <c r="I17" s="1">
-        <v>0</v>
-      </c>
-      <c r="J17" s="1">
-        <v>0</v>
-      </c>
-      <c r="K17" s="1">
-        <v>0</v>
-      </c>
-      <c r="L17" s="1">
-        <v>0</v>
-      </c>
-      <c r="M17" s="1">
-        <v>1</v>
-      </c>
-      <c r="N17" s="1">
-        <v>0</v>
-      </c>
-      <c r="O17" s="1">
-        <v>0</v>
-      </c>
-      <c r="P17" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q17" s="1">
-        <v>0</v>
-      </c>
-      <c r="R17" s="1">
-        <v>0</v>
-      </c>
-      <c r="S17" s="1">
-        <v>0</v>
-      </c>
-      <c r="T17" s="1">
-        <v>0</v>
-      </c>
-      <c r="U17" s="1">
-        <v>0</v>
-      </c>
-      <c r="V17" s="1">
-        <v>0</v>
-      </c>
-      <c r="W17" s="1">
-        <v>0</v>
-      </c>
-      <c r="X17" s="1">
-        <v>0</v>
-      </c>
-      <c r="Y17" s="1">
+      <c r="D20" s="1">
+        <v>0</v>
+      </c>
+      <c r="E20" s="1">
+        <v>1</v>
+      </c>
+      <c r="F20" s="1">
+        <v>1</v>
+      </c>
+      <c r="G20" s="1">
+        <v>0</v>
+      </c>
+      <c r="H20" s="1">
+        <v>0</v>
+      </c>
+      <c r="I20" s="1">
+        <v>0</v>
+      </c>
+      <c r="J20" s="1">
+        <v>0</v>
+      </c>
+      <c r="K20" s="1">
+        <v>0</v>
+      </c>
+      <c r="L20" s="1">
+        <v>0</v>
+      </c>
+      <c r="M20" s="1">
+        <v>1</v>
+      </c>
+      <c r="N20" s="1">
+        <v>0</v>
+      </c>
+      <c r="O20" s="1">
+        <v>0</v>
+      </c>
+      <c r="P20" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="1">
+        <v>0</v>
+      </c>
+      <c r="R20" s="1">
+        <v>0</v>
+      </c>
+      <c r="S20" s="1">
+        <v>0</v>
+      </c>
+      <c r="T20" s="1">
+        <v>0</v>
+      </c>
+      <c r="U20" s="1">
+        <v>0</v>
+      </c>
+      <c r="V20" s="1">
+        <v>0</v>
+      </c>
+      <c r="W20" s="1">
+        <v>0</v>
+      </c>
+      <c r="X20" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y20" s="1">
+        <v>1</v>
+      </c>
+      <c r="Z20" s="1">
+        <v>1</v>
+      </c>
+      <c r="AA20" s="1">
+        <v>1</v>
+      </c>
+      <c r="AB20" s="1">
         <v>1</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:W19">
-    <sortCondition ref="C2:C19"/>
+  <sortState ref="A2:AB21">
+    <sortCondition ref="C2:C21"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
